--- a/docs/pages/tools/appearance_table_maker/excel/e_男性用コスチューム.xlsx
+++ b/docs/pages/tools/appearance_table_maker/excel/e_男性用コスチューム.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Desktop\git_repository\PSNOVA\docs\pages\tools\appearance_table_maker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08D3622-9E2B-4BC7-9CC3-4290EDC45420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8309778-97F3-456F-8332-16A33C57C299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>名前</t>
   </si>
@@ -312,8 +312,10 @@
     <t>2014/12/11配信</t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
+    <t>ジャン・ドゥB</t>
+  </si>
+  <si>
+    <t>ダーカーの触角x1</t>
   </si>
 </sst>
 </file>
@@ -638,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -885,13 +887,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -903,96 +905,96 @@
       </c>
     </row>
     <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="C35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="C37" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="C41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="C43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
@@ -1000,18 +1002,18 @@
     </row>
     <row r="45" spans="1:4">
       <c r="C45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1019,269 +1021,276 @@
     </row>
     <row r="47" spans="1:4">
       <c r="C47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="C49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="C51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="C53" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
       <c r="C54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="C55" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="C57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" t="s">
-        <v>68</v>
-      </c>
       <c r="C58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="C59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="C61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="C63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>76</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="C64" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>78</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>68</v>
       </c>
-      <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="D66" t="s">
+    <row r="68" spans="1:4">
+      <c r="D68" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="D67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="D71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="D73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="D74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" t="s">
-        <v>95</v>
-      </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="D76" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="D78" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="D79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="D80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="D81" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>91</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>68</v>
       </c>
-      <c r="C80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="4:4">
-      <c r="D81" t="s">
+    <row r="83" spans="1:4">
+      <c r="D83" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="4:4">
-      <c r="D82" t="s">
+    <row r="84" spans="1:4">
+      <c r="D84" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="4:4">
-      <c r="D83" t="s">
+    <row r="85" spans="1:4">
+      <c r="D85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="4:4">
-      <c r="D84" t="s">
+    <row r="86" spans="1:4">
+      <c r="D86" t="s">
         <v>94</v>
       </c>
     </row>
